--- a/Documentatie/logboek.xlsx
+++ b/Documentatie/logboek.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097E2530-B560-4E85-82DF-5982AFE10756}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,52 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>Dagen</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Tijd</t>
+  </si>
+  <si>
+    <t>Locatie</t>
+  </si>
+  <si>
+    <t>Wat gedaan</t>
+  </si>
+  <si>
+    <t>conclusie</t>
+  </si>
+  <si>
+    <t>15:30 tot 18:00</t>
+  </si>
+  <si>
+    <t>11:00 tot 13:30</t>
+  </si>
+  <si>
+    <t>E2.23</t>
+  </si>
+  <si>
+    <t>B2.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marnix heeft een boek gemaakt en 1 achtergrond afbeelding en arjen een game area aangemaakt </t>
+  </si>
+  <si>
+    <t>opdracht gehoord, groep geformd en idee bedacht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marnix heeft nog 1 achtergrond afbeelding toegevoegd </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,11 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +376,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="102.77734375" customWidth="1"/>
+    <col min="6" max="6" width="52.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43592</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43593</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43599</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentatie/logboek.xlsx
+++ b/Documentatie/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097E2530-B560-4E85-82DF-5982AFE10756}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9784D6D-C6AC-427A-8EB7-C68833EA10B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Dagen</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">marnix heeft nog 1 achtergrond afbeelding toegevoegd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marnix heeft achtergrond ge update en logo's toegevoegd en arjan jenoah hebben boek in de game toevoegen en alten bewegen </t>
   </si>
 </sst>
 </file>
@@ -380,14 +383,14 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="102.77734375" customWidth="1"/>
+    <col min="5" max="5" width="105.6640625" customWidth="1"/>
     <col min="6" max="6" width="52.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -466,6 +469,18 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="1">
+        <v>43600</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">

--- a/Documentatie/logboek.xlsx
+++ b/Documentatie/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9784D6D-C6AC-427A-8EB7-C68833EA10B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA173748-56C1-4121-A852-88E23A6DC554}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Dagen</t>
   </si>
@@ -383,7 +383,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,6 +486,15 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="1">
+        <v>43606</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">

--- a/Documentatie/logboek.xlsx
+++ b/Documentatie/logboek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA173748-56C1-4121-A852-88E23A6DC554}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E72397A-E171-432B-9895-6524C35EC0E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Dagen</t>
   </si>
@@ -52,16 +52,43 @@
     <t>B2.12</t>
   </si>
   <si>
-    <t xml:space="preserve">marnix heeft een boek gemaakt en 1 achtergrond afbeelding en arjen een game area aangemaakt </t>
-  </si>
-  <si>
     <t>opdracht gehoord, groep geformd en idee bedacht</t>
   </si>
   <si>
-    <t xml:space="preserve">marnix heeft nog 1 achtergrond afbeelding toegevoegd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">marnix heeft achtergrond ge update en logo's toegevoegd en arjan jenoah hebben boek in de game toevoegen en alten bewegen </t>
+    <t xml:space="preserve">marnix heeft een boek gemaakt en 1 achtergrond afbeelding en arjan een game area aangemaakt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marnix heeft achtergrond ge update en logo's toegevoegd en arjan jenoah hebben boek in de game toevoegen en laten bewegen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marnix heeft nog 1 achtergrond afbeelding toegevoegd vergeten voor arjan en jenoaha op te schrijven </t>
+  </si>
+  <si>
+    <t>arjen heeft stippen kunnen laten dropen maar er zit nog een glitsh in met dat marnix heeft allafbeeldingen afgerond jenoaha was ziek</t>
+  </si>
+  <si>
+    <t>marnix was bezig met een verslag arjen en jenoah hebben png kunnnen laaten vallen en op vangen (game)</t>
+  </si>
+  <si>
+    <t>marnix heeft de woorden in een png gemaakt voor arjen en arjen heeft zijn stip glitch gefixd jenoah is nog steeds ziek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jenoah gewerkt aan webdev arjan &amp; marnix konden niet op school komen vanwege staking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jenoah &amp; arjen hebben score toegevoegd marnix heeft trello bijgewerkt + logboek en de wereld van minecraft verkend </t>
+  </si>
+  <si>
+    <t>15:00 tot 18:00</t>
+  </si>
+  <si>
+    <t>15:30 tot 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jenoah &amp; arjen &amp; marnix gewerkt om meer woorden te hebben en te laten vallen </t>
+  </si>
+  <si>
+    <t>jenoah eindscore (trigger) aan gewerkt marnix logboek en trello bijgewrkt arjen afwezig</t>
   </si>
 </sst>
 </file>
@@ -383,14 +410,14 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="105.6640625" customWidth="1"/>
+    <col min="5" max="5" width="108.21875" customWidth="1"/>
     <col min="6" max="6" width="52.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -428,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -445,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -462,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -479,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -495,35 +522,110 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>43607</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>43613</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="1">
+        <v>43614</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="1">
+        <v>43620</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="1">
+        <v>43621</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43627</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
